--- a/Elektronik/Mappe1.xlsx
+++ b/Elektronik/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Zeug\CarDuino\Elektronik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5495193C-8A4F-4E95-ADF0-3CF5B6DAB916}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BCC18-F97E-4FF0-99D9-C590AC90D209}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{65E629B9-D7D5-4335-B2AC-3A0F655F26FB}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>R1</t>
   </si>
@@ -87,13 +87,120 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Key 1</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Last </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> über R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>byte 1</t>
+  </si>
+  <si>
+    <t>byte 3</t>
+  </si>
+  <si>
+    <t>byte 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +210,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,6 +260,973 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLast </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="5.000000000000001E-2"/>
+            <c:backward val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$8:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$8:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D23-4F7C-8B4E-A7D548D9E145}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594759824"/>
+        <c:axId val="594761792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594759824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594761792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594761792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594759824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672D4F68-94FC-4490-908C-491BDDFE0B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,15 +1526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708022A7-3132-4687-BF06-27841A32961F}">
-  <dimension ref="B3:F19"/>
+  <dimension ref="B3:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -465,8 +1547,17 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>3.03</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -479,8 +1570,14 @@
       <c r="F4">
         <v>5</v>
       </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -494,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -502,23 +1599,87 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
         <v>400</v>
       </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
         <v>800</v>
       </c>
+      <c r="H8">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I8">
+        <v>20.12</v>
+      </c>
+      <c r="J8">
+        <v>140</v>
+      </c>
+      <c r="K8">
+        <v>235</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1.96</v>
+      </c>
+      <c r="I9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J9">
+        <v>103</v>
+      </c>
+      <c r="K9">
+        <v>217</v>
+      </c>
+      <c r="L9">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1.68</v>
+      </c>
+      <c r="I10">
+        <v>4.96</v>
+      </c>
+      <c r="J10">
+        <v>67</v>
+      </c>
+      <c r="K10">
+        <v>192</v>
+      </c>
+      <c r="L10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -529,8 +1690,23 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
+      <c r="H11">
+        <v>1.49</v>
+      </c>
+      <c r="I11">
+        <v>3.3</v>
+      </c>
+      <c r="J11">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>172</v>
+      </c>
+      <c r="L11">
+        <v>224</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -539,7 +1715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -548,7 +1724,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -557,7 +1733,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -566,7 +1742,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -605,5 +1781,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>